--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rdb824dbb26654c2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rca3ce72db5cc4809"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rca3ce72db5cc4809"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R76121afa1d4745fd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R76121afa1d4745fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rd607e31b6e6745cf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rd607e31b6e6745cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rf80d0657151b43c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rf80d0657151b43c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rcc5758fea4a442e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rcc5758fea4a442e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R1982ff1b98dc4939"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R1982ff1b98dc4939"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rbbd73599ca394b1a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rbbd73599ca394b1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R817e53fc67f14bab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R817e53fc67f14bab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Re9c20c25f8734bc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Re9c20c25f8734bc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R4055397dc5b04e4d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R4055397dc5b04e4d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rea474b4180da49a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rea474b4180da49a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rb5bff4f4022c4e35"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/067_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rb5bff4f4022c4e35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rcb3b8dbf9a334102"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
